--- a/hw01-data/unc_monovar.xlsx
+++ b/hw01-data/unc_monovar.xlsx
@@ -435,25 +435,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>-78.92671875000001</v>
+        <v>-85.34399999999999</v>
       </c>
       <c r="C2">
-        <v>7.964967288136497</v>
+        <v>18.7753399797678</v>
       </c>
       <c r="D2">
-        <v>8080.703056562443</v>
+        <v>1818.475340000002</v>
       </c>
       <c r="E2">
-        <v>83.70153390625096</v>
+        <v>98.96312000000002</v>
       </c>
       <c r="F2">
-        <v>0.994859375</v>
+        <v>0.972</v>
       </c>
       <c r="G2">
-        <v>1.26271875</v>
+        <v>1.488</v>
       </c>
       <c r="H2">
-        <v>2.648666875000006</v>
+        <v>1.054960000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -461,25 +461,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>17.5687662186348</v>
+        <v>11.64013098287976</v>
       </c>
       <c r="C3">
-        <v>16.86812337854568</v>
+        <v>25.88713346625129</v>
       </c>
       <c r="D3">
-        <v>51598.75109539757</v>
+        <v>5640.907529675343</v>
       </c>
       <c r="E3">
-        <v>80.81964079821562</v>
+        <v>112.8077729606711</v>
       </c>
       <c r="F3">
-        <v>0.07151418660106951</v>
+        <v>0.1651379456156704</v>
       </c>
       <c r="G3">
-        <v>0.4616353411498647</v>
+        <v>0.5389219551544523</v>
       </c>
       <c r="H3">
-        <v>2.025738131184818</v>
+        <v>1.562370443013566</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -487,25 +487,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.1977991099131772</v>
+        <v>-0.2392588398097331</v>
       </c>
       <c r="C4">
-        <v>2.700841810786972</v>
+        <v>1.115416912398127</v>
       </c>
       <c r="D4">
-        <v>7.867378053883277</v>
+        <v>5.815732493309492</v>
       </c>
       <c r="E4">
-        <v>9.509778692937436</v>
+        <v>6.770365167943205</v>
       </c>
       <c r="F4">
-        <v>-13.83990683136511</v>
+        <v>-5.739390550881897</v>
       </c>
       <c r="G4">
-        <v>0.7789363925151201</v>
+        <v>-0.3378441491900197</v>
       </c>
       <c r="H4">
-        <v>1.792427140869925</v>
+        <v>4.751218595304434</v>
       </c>
     </row>
   </sheetData>

--- a/hw01-data/unc_monovar.xlsx
+++ b/hw01-data/unc_monovar.xlsx
@@ -16,6 +16,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
+    <t>Mean $\mu_d$</t>
+  </si>
+  <si>
+    <t>std $\sigma_d$</t>
+  </si>
+  <si>
+    <t>Skewness $\gamma_d$</t>
+  </si>
+  <si>
     <t>Signal (dBm)</t>
   </si>
   <si>
@@ -35,15 +44,6 @@
   </si>
   <si>
     <t>Call Test Setup Time (s)</t>
-  </si>
-  <si>
-    <t>Mean $\mu_d$</t>
-  </si>
-  <si>
-    <t>std $\sigma_d$</t>
-  </si>
-  <si>
-    <t>Skewness $\gamma_d$</t>
   </si>
 </sst>
 </file>
@@ -401,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,94 +417,102 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="B2">
         <v>-85.34399999999999</v>
       </c>
       <c r="C2">
+        <v>11.64013098287976</v>
+      </c>
+      <c r="D2">
+        <v>-0.2392588398097331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
         <v>18.7753399797678</v>
-      </c>
-      <c r="D2">
-        <v>1818.475340000002</v>
-      </c>
-      <c r="E2">
-        <v>98.96312000000002</v>
-      </c>
-      <c r="F2">
-        <v>0.972</v>
-      </c>
-      <c r="G2">
-        <v>1.488</v>
-      </c>
-      <c r="H2">
-        <v>1.054960000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>11.64013098287976</v>
       </c>
       <c r="C3">
         <v>25.88713346625129</v>
       </c>
       <c r="D3">
+        <v>1.115416912398127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1818.475340000002</v>
+      </c>
+      <c r="C4">
         <v>5640.907529675343</v>
-      </c>
-      <c r="E3">
-        <v>112.8077729606711</v>
-      </c>
-      <c r="F3">
-        <v>0.1651379456156704</v>
-      </c>
-      <c r="G3">
-        <v>0.5389219551544523</v>
-      </c>
-      <c r="H3">
-        <v>1.562370443013566</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>-0.2392588398097331</v>
-      </c>
-      <c r="C4">
-        <v>1.115416912398127</v>
       </c>
       <c r="D4">
         <v>5.815732493309492</v>
       </c>
-      <c r="E4">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>98.96312000000002</v>
+      </c>
+      <c r="C5">
+        <v>112.8077729606711</v>
+      </c>
+      <c r="D5">
         <v>6.770365167943205</v>
       </c>
-      <c r="F4">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.972</v>
+      </c>
+      <c r="C6">
+        <v>0.1651379456156704</v>
+      </c>
+      <c r="D6">
         <v>-5.739390550881897</v>
       </c>
-      <c r="G4">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>1.488</v>
+      </c>
+      <c r="C7">
+        <v>0.5389219551544523</v>
+      </c>
+      <c r="D7">
         <v>-0.3378441491900197</v>
       </c>
-      <c r="H4">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>1.054960000000001</v>
+      </c>
+      <c r="C8">
+        <v>1.562370443013566</v>
+      </c>
+      <c r="D8">
         <v>4.751218595304434</v>
       </c>
     </row>
